--- a/pogoda.xlsx
+++ b/pogoda.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,6 +501,558 @@
         <v>24.08</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:37:08</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="E4" t="n">
+        <v>59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:37:14</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="E5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:37:20</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="E6" t="n">
+        <v>59</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:37:25</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="E7" t="n">
+        <v>59</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:37:31</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="E8" t="n">
+        <v>59</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:37:36</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="E9" t="n">
+        <v>59</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:37:42</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="E10" t="n">
+        <v>59</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:37:47</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="E11" t="n">
+        <v>59</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:37:53</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="E12" t="n">
+        <v>59</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:37:59</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="E13" t="n">
+        <v>59</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:38:04</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="E14" t="n">
+        <v>59</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:38:10</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="E15" t="n">
+        <v>59</v>
+      </c>
+      <c r="F15" t="n">
+        <v>22.54</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:38:15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="E16" t="n">
+        <v>59</v>
+      </c>
+      <c r="F16" t="n">
+        <v>22.54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:38:21</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="D17" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="E17" t="n">
+        <v>59</v>
+      </c>
+      <c r="F17" t="n">
+        <v>22.54</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:47:22</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="E18" t="n">
+        <v>60</v>
+      </c>
+      <c r="F18" t="n">
+        <v>17.71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:47:33</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D19" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="E19" t="n">
+        <v>60</v>
+      </c>
+      <c r="F19" t="n">
+        <v>17.71</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:47:43</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="E20" t="n">
+        <v>60</v>
+      </c>
+      <c r="F20" t="n">
+        <v>17.71</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:51:18</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="D21" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="E21" t="n">
+        <v>49</v>
+      </c>
+      <c r="F21" t="n">
+        <v>25.74</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:51:29</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="D22" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="E22" t="n">
+        <v>49</v>
+      </c>
+      <c r="F22" t="n">
+        <v>25.74</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:51:40</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="E23" t="n">
+        <v>49</v>
+      </c>
+      <c r="F23" t="n">
+        <v>25.74</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:51:50</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="D24" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="E24" t="n">
+        <v>49</v>
+      </c>
+      <c r="F24" t="n">
+        <v>25.74</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:57:13</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Warsaw</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E25" t="n">
+        <v>83</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>16-05-2025 20:57:23</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Warsaw</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E26" t="n">
+        <v>83</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
